--- a/ApolloQA/Data/RatingManual/GA/OR00006.xlsx
+++ b/ApolloQA/Data/RatingManual/GA/OR00006.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OR00006" sheetId="1" r:id="R7e0ea291fac744e0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OR00006" sheetId="1" r:id="R77b2370707f74f14"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -26,6 +26,17 @@
         <x:v>Maximum</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>OR00013.MinimumRatingValueFactors</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Maximum</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>Stated Value</x:v>
       </x:c>
       <x:c t="str">
@@ -34,76 +45,65 @@
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>Maximum</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>OR00006.MinimumRatingLimitFactors</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>Round [0]</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>=</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Rating Limit</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>x</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>OR00006.BaseRateFactors</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>x</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>OR00006.DeductibleFactors</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>x</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>OR00006.TerritoryFactors</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>x</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>OR00006.GarageKeeperCoverageType_LimitFactors</x:v>
+        <x:v>Round [0]</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>=</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Rating Stated Value</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>x</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>OR00013.BaseRateFactors</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>x</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>OR00013.StatedValueFactors</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>x</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>OR00013.DeductibleFactors</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>x</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>OR00013.Deductible_StatedValueFactors</x:v>
       </x:c>
       <x:c t="str">
         <x:v/>
